--- a/VietStock/report/PTBCTC-kdh.xlsx
+++ b/VietStock/report/PTBCTC-kdh.xlsx
@@ -8,6 +8,7 @@
     <sheet name="CSTC" sheetId="1" r:id="rId1"/>
     <sheet name="CDKT" sheetId="2" r:id="rId2"/>
     <sheet name="KQKD" sheetId="3" r:id="rId3"/>
+    <sheet name="LCTT" sheetId="4" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
@@ -15973,4 +15974,1643 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr/>
+  <dimension ref="A1:U25"/>
+  <sheetViews>
+    <sheetView showGridLines="1" tabSelected="0" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>36372</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>46022</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>79555</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>6539</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>112660</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>422787</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>179436</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>302523</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>255192</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>334590</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>569556</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>682465</v>
+      </c>
+      <c r="N2" s="1" t="n">
+        <v>417817</v>
+      </c>
+      <c r="O2" s="1" t="n">
+        <v>2189272</v>
+      </c>
+      <c r="P2" s="1" t="n">
+        <v>643514</v>
+      </c>
+      <c r="Q2" s="1" t="n">
+        <v>1153021</v>
+      </c>
+      <c r="R2" s="1" t="n">
+        <v>469483</v>
+      </c>
+      <c r="S2" s="1" t="n">
+        <v>860147</v>
+      </c>
+      <c r="T2" s="1" t="n">
+        <v>413291</v>
+      </c>
+      <c r="U2" s="1" t="n">
+        <v>517237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>8210</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>30322</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>4290</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>5461</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>1979</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1" t="n">
+        <v>467</v>
+      </c>
+      <c r="M3" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="N3" s="1" t="n">
+        <v>7180</v>
+      </c>
+      <c r="O3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1" t="n">
+        <v>2322</v>
+      </c>
+      <c r="Q3" s="1" t="n">
+        <v>3833</v>
+      </c>
+      <c r="R3" s="1" t="n">
+        <v>569</v>
+      </c>
+      <c r="S3" s="1" t="n">
+        <v>390</v>
+      </c>
+      <c r="T3" s="1" t="n">
+        <v>2492</v>
+      </c>
+      <c r="U3" s="1" t="n">
+        <v>-556</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>28162</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>15700</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>79555</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>2249</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>112660</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>417326</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>179436</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>300544</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>255192</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>334590</v>
+      </c>
+      <c r="L4" s="1" t="n">
+        <v>569089</v>
+      </c>
+      <c r="M4" s="1" t="n">
+        <v>682428</v>
+      </c>
+      <c r="N4" s="1" t="n">
+        <v>410637</v>
+      </c>
+      <c r="O4" s="1" t="n">
+        <v>2189272</v>
+      </c>
+      <c r="P4" s="1" t="n">
+        <v>641192</v>
+      </c>
+      <c r="Q4" s="1" t="n">
+        <v>1149187</v>
+      </c>
+      <c r="R4" s="1" t="n">
+        <v>468914</v>
+      </c>
+      <c r="S4" s="1" t="n">
+        <v>859757</v>
+      </c>
+      <c r="T4" s="1" t="n">
+        <v>410799</v>
+      </c>
+      <c r="U4" s="1" t="n">
+        <v>517793</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>32475</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>17988</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>50300</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>8939</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>108675</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>353122</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>123246</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>204925</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>198259</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>199465</v>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>346077</v>
+      </c>
+      <c r="M5" s="1" t="n">
+        <v>432966</v>
+      </c>
+      <c r="N5" s="1" t="n">
+        <v>230099</v>
+      </c>
+      <c r="O5" s="1" t="n">
+        <v>1867791</v>
+      </c>
+      <c r="P5" s="1" t="n">
+        <v>402501</v>
+      </c>
+      <c r="Q5" s="1" t="n">
+        <v>822390</v>
+      </c>
+      <c r="R5" s="1" t="n">
+        <v>256295</v>
+      </c>
+      <c r="S5" s="1" t="n">
+        <v>588772</v>
+      </c>
+      <c r="T5" s="1" t="n">
+        <v>227743</v>
+      </c>
+      <c r="U5" s="1" t="n">
+        <v>377520</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>-4313</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>-2288</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>29255</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>-6690</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>3985</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>64204</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>56190</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>95619</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>56933</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>135126</v>
+      </c>
+      <c r="L6" s="1" t="n">
+        <v>223012</v>
+      </c>
+      <c r="M6" s="1" t="n">
+        <v>249462</v>
+      </c>
+      <c r="N6" s="1" t="n">
+        <v>180537</v>
+      </c>
+      <c r="O6" s="1" t="n">
+        <v>321481</v>
+      </c>
+      <c r="P6" s="1" t="n">
+        <v>238691</v>
+      </c>
+      <c r="Q6" s="1" t="n">
+        <v>326798</v>
+      </c>
+      <c r="R6" s="1" t="n">
+        <v>212620</v>
+      </c>
+      <c r="S6" s="1" t="n">
+        <v>270985</v>
+      </c>
+      <c r="T6" s="1" t="n">
+        <v>183056</v>
+      </c>
+      <c r="U6" s="1" t="n">
+        <v>140272</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>1938</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>7121</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>859</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>79468</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>49166</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>1136</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>35192</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>4873</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <v>2712</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>31612</v>
+      </c>
+      <c r="L7" s="1" t="n">
+        <v>5570</v>
+      </c>
+      <c r="M7" s="1" t="n">
+        <v>2133</v>
+      </c>
+      <c r="N7" s="1" t="n">
+        <v>1500</v>
+      </c>
+      <c r="O7" s="1" t="n">
+        <v>11929</v>
+      </c>
+      <c r="P7" s="1" t="n">
+        <v>37866</v>
+      </c>
+      <c r="Q7" s="1" t="n">
+        <v>5066</v>
+      </c>
+      <c r="R7" s="1" t="n">
+        <v>9538</v>
+      </c>
+      <c r="S7" s="1" t="n">
+        <v>21910</v>
+      </c>
+      <c r="T7" s="1" t="n">
+        <v>20892</v>
+      </c>
+      <c r="U7" s="1" t="n">
+        <v>133489</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>110668</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>-9368</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>6020</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>13382</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>5660</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>24593</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>8267</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>11387</v>
+      </c>
+      <c r="J8" s="1" t="n">
+        <v>3840</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>32126</v>
+      </c>
+      <c r="L8" s="1" t="n">
+        <v>36886</v>
+      </c>
+      <c r="M8" s="1" t="n">
+        <v>35495</v>
+      </c>
+      <c r="N8" s="1" t="n">
+        <v>23011</v>
+      </c>
+      <c r="O8" s="1" t="n">
+        <v>51576</v>
+      </c>
+      <c r="P8" s="1" t="n">
+        <v>42419</v>
+      </c>
+      <c r="Q8" s="1" t="n">
+        <v>35232</v>
+      </c>
+      <c r="R8" s="1" t="n">
+        <v>13453</v>
+      </c>
+      <c r="S8" s="1" t="n">
+        <v>29773</v>
+      </c>
+      <c r="T8" s="1" t="n">
+        <v>15578</v>
+      </c>
+      <c r="U8" s="1" t="n">
+        <v>20303</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>24435</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>3789</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>6020</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>7382</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>5660</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>19869</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>2563</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>4674</v>
+      </c>
+      <c r="J9" s="1" t="n">
+        <v>1457</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="L9" s="1" t="n">
+        <v>5098</v>
+      </c>
+      <c r="M9" s="1" t="n">
+        <v>4064</v>
+      </c>
+      <c r="N9" s="1" t="n">
+        <v>7365</v>
+      </c>
+      <c r="O9" s="1" t="n">
+        <v>30260</v>
+      </c>
+      <c r="P9" s="1" t="n">
+        <v>1719</v>
+      </c>
+      <c r="Q9" s="1" t="n">
+        <v>3680</v>
+      </c>
+      <c r="R9" s="1" t="n">
+        <v>4972</v>
+      </c>
+      <c r="S9" s="1" t="n">
+        <v>925</v>
+      </c>
+      <c r="T9" s="1" t="n">
+        <v>10184</v>
+      </c>
+      <c r="U9" s="1" t="n">
+        <v>14519</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>17269</v>
+      </c>
+      <c r="L10" s="1" t="n">
+        <v>7091</v>
+      </c>
+      <c r="M10" s="1" t="n">
+        <v>1297</v>
+      </c>
+      <c r="N10" s="1" t="n">
+        <v>-1137</v>
+      </c>
+      <c r="O10" s="1" t="n">
+        <v>3474</v>
+      </c>
+      <c r="P10" s="1" t="n">
+        <v>791</v>
+      </c>
+      <c r="Q10" s="1" t="n">
+        <v>-1037</v>
+      </c>
+      <c r="R10" s="1" t="n">
+        <v>4324</v>
+      </c>
+      <c r="S10" s="1" t="n">
+        <v>3424</v>
+      </c>
+      <c r="T10" s="1" t="n">
+        <v>4000</v>
+      </c>
+      <c r="U10" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>876</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>-391</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>733</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>2418</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>2452</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>22017</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>9584</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>11640</v>
+      </c>
+      <c r="J11" s="1" t="n">
+        <v>1321</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>39437</v>
+      </c>
+      <c r="L11" s="1" t="n">
+        <v>26731</v>
+      </c>
+      <c r="M11" s="1" t="n">
+        <v>33340</v>
+      </c>
+      <c r="N11" s="1" t="n">
+        <v>41082</v>
+      </c>
+      <c r="O11" s="1" t="n">
+        <v>71764</v>
+      </c>
+      <c r="P11" s="1" t="n">
+        <v>45506</v>
+      </c>
+      <c r="Q11" s="1" t="n">
+        <v>62466</v>
+      </c>
+      <c r="R11" s="1" t="n">
+        <v>6636</v>
+      </c>
+      <c r="S11" s="1" t="n">
+        <v>3272</v>
+      </c>
+      <c r="T11" s="1" t="n">
+        <v>17780</v>
+      </c>
+      <c r="U11" s="1" t="n">
+        <v>28234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>-1657</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>17747</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>7109</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>9020</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>9247</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>9840</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>11661</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>10736</v>
+      </c>
+      <c r="J12" s="1" t="n">
+        <v>12620</v>
+      </c>
+      <c r="K12" s="1" t="n">
+        <v>42070</v>
+      </c>
+      <c r="L12" s="1" t="n">
+        <v>30267</v>
+      </c>
+      <c r="M12" s="1" t="n">
+        <v>26245</v>
+      </c>
+      <c r="N12" s="1" t="n">
+        <v>27446</v>
+      </c>
+      <c r="O12" s="1" t="n">
+        <v>34072</v>
+      </c>
+      <c r="P12" s="1" t="n">
+        <v>38347</v>
+      </c>
+      <c r="Q12" s="1" t="n">
+        <v>29773</v>
+      </c>
+      <c r="R12" s="1" t="n">
+        <v>27527</v>
+      </c>
+      <c r="S12" s="1" t="n">
+        <v>26061</v>
+      </c>
+      <c r="T12" s="1" t="n">
+        <v>40262</v>
+      </c>
+      <c r="U12" s="1" t="n">
+        <v>43044</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>-112262</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>-3155</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>16252</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>47959</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>35793</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>8891</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>61869</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>66730</v>
+      </c>
+      <c r="J13" s="1" t="n">
+        <v>41864</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>70374</v>
+      </c>
+      <c r="L13" s="1" t="n">
+        <v>141789</v>
+      </c>
+      <c r="M13" s="1" t="n">
+        <v>157813</v>
+      </c>
+      <c r="N13" s="1" t="n">
+        <v>89361</v>
+      </c>
+      <c r="O13" s="1" t="n">
+        <v>179472</v>
+      </c>
+      <c r="P13" s="1" t="n">
+        <v>151076</v>
+      </c>
+      <c r="Q13" s="1" t="n">
+        <v>203355</v>
+      </c>
+      <c r="R13" s="1" t="n">
+        <v>178865</v>
+      </c>
+      <c r="S13" s="1" t="n">
+        <v>237212</v>
+      </c>
+      <c r="T13" s="1" t="n">
+        <v>134328</v>
+      </c>
+      <c r="U13" s="1" t="n">
+        <v>182180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>908</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>-705</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>529</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>596</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>2157</v>
+      </c>
+      <c r="J14" s="1" t="n">
+        <v>46674</v>
+      </c>
+      <c r="K14" s="1" t="n">
+        <v>53731</v>
+      </c>
+      <c r="L14" s="1" t="n">
+        <v>2147</v>
+      </c>
+      <c r="M14" s="1" t="n">
+        <v>2830</v>
+      </c>
+      <c r="N14" s="1" t="n">
+        <v>3332</v>
+      </c>
+      <c r="O14" s="1" t="n">
+        <v>5486</v>
+      </c>
+      <c r="P14" s="1" t="n">
+        <v>3283</v>
+      </c>
+      <c r="Q14" s="1" t="n">
+        <v>4426</v>
+      </c>
+      <c r="R14" s="1" t="n">
+        <v>3910</v>
+      </c>
+      <c r="S14" s="1" t="n">
+        <v>7981</v>
+      </c>
+      <c r="T14" s="1" t="n">
+        <v>3788</v>
+      </c>
+      <c r="U14" s="1" t="n">
+        <v>5952</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>961</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>-711</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>2448</v>
+      </c>
+      <c r="J15" s="1" t="n">
+        <v>5983</v>
+      </c>
+      <c r="K15" s="1" t="n">
+        <v>14458</v>
+      </c>
+      <c r="L15" s="1" t="n">
+        <v>8013</v>
+      </c>
+      <c r="M15" s="1" t="n">
+        <v>4718</v>
+      </c>
+      <c r="N15" s="1" t="n">
+        <v>3531</v>
+      </c>
+      <c r="O15" s="1" t="n">
+        <v>20109</v>
+      </c>
+      <c r="P15" s="1" t="n">
+        <v>4672</v>
+      </c>
+      <c r="Q15" s="1" t="n">
+        <v>13779</v>
+      </c>
+      <c r="R15" s="1" t="n">
+        <v>7710</v>
+      </c>
+      <c r="S15" s="1" t="n">
+        <v>9667</v>
+      </c>
+      <c r="T15" s="1" t="n">
+        <v>7110</v>
+      </c>
+      <c r="U15" s="1" t="n">
+        <v>7081</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>-53</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>-36</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>465</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>524</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>-291</v>
+      </c>
+      <c r="J16" s="1" t="n">
+        <v>40691</v>
+      </c>
+      <c r="K16" s="1" t="n">
+        <v>39273</v>
+      </c>
+      <c r="L16" s="1" t="n">
+        <v>-5866</v>
+      </c>
+      <c r="M16" s="1" t="n">
+        <v>-1888</v>
+      </c>
+      <c r="N16" s="1" t="n">
+        <v>-199</v>
+      </c>
+      <c r="O16" s="1" t="n">
+        <v>-14623</v>
+      </c>
+      <c r="P16" s="1" t="n">
+        <v>-1388</v>
+      </c>
+      <c r="Q16" s="1" t="n">
+        <v>-9353</v>
+      </c>
+      <c r="R16" s="1" t="n">
+        <v>-3800</v>
+      </c>
+      <c r="S16" s="1" t="n">
+        <v>-1686</v>
+      </c>
+      <c r="T16" s="1" t="n">
+        <v>-3322</v>
+      </c>
+      <c r="U16" s="1" t="n">
+        <v>-1128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>-1370</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>-2632</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>584</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>-5065</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>-10</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>-113686</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>-5780</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>16835</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>42857</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>35847</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>9347</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>62393</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>66439</v>
+      </c>
+      <c r="J18" s="1" t="n">
+        <v>82555</v>
+      </c>
+      <c r="K18" s="1" t="n">
+        <v>109647</v>
+      </c>
+      <c r="L18" s="1" t="n">
+        <v>135924</v>
+      </c>
+      <c r="M18" s="1" t="n">
+        <v>155925</v>
+      </c>
+      <c r="N18" s="1" t="n">
+        <v>89162</v>
+      </c>
+      <c r="O18" s="1" t="n">
+        <v>164850</v>
+      </c>
+      <c r="P18" s="1" t="n">
+        <v>149688</v>
+      </c>
+      <c r="Q18" s="1" t="n">
+        <v>194003</v>
+      </c>
+      <c r="R18" s="1" t="n">
+        <v>175066</v>
+      </c>
+      <c r="S18" s="1" t="n">
+        <v>235526</v>
+      </c>
+      <c r="T18" s="1" t="n">
+        <v>131006</v>
+      </c>
+      <c r="U18" s="1" t="n">
+        <v>181052</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>-663</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>3891</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>15069</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>390</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>11531</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>17987</v>
+      </c>
+      <c r="J19" s="1" t="n">
+        <v>12439</v>
+      </c>
+      <c r="K19" s="1" t="n">
+        <v>1302</v>
+      </c>
+      <c r="L19" s="1" t="n">
+        <v>14286</v>
+      </c>
+      <c r="M19" s="1" t="n">
+        <v>69799</v>
+      </c>
+      <c r="N19" s="1" t="n">
+        <v>31483</v>
+      </c>
+      <c r="O19" s="1" t="n">
+        <v>39256</v>
+      </c>
+      <c r="P19" s="1" t="n">
+        <v>31332</v>
+      </c>
+      <c r="Q19" s="1" t="n">
+        <v>61784</v>
+      </c>
+      <c r="R19" s="1" t="n">
+        <v>8581</v>
+      </c>
+      <c r="S19" s="1" t="n">
+        <v>89034</v>
+      </c>
+      <c r="T19" s="1" t="n">
+        <v>22502</v>
+      </c>
+      <c r="U19" s="1" t="n">
+        <v>63904</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>-21498</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>-4462</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>6580</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>8645</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>7234</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>-281</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="J20" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="K20" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="L20" s="1" t="n">
+        <v>24148</v>
+      </c>
+      <c r="M20" s="1" t="n">
+        <v>-28567</v>
+      </c>
+      <c r="N20" s="1" t="n">
+        <v>1470</v>
+      </c>
+      <c r="O20" s="1" t="n">
+        <v>497</v>
+      </c>
+      <c r="P20" s="1" t="n">
+        <v>-525</v>
+      </c>
+      <c r="Q20" s="1" t="n">
+        <v>-346</v>
+      </c>
+      <c r="R20" s="1" t="n">
+        <v>3347</v>
+      </c>
+      <c r="S20" s="1" t="n">
+        <v>-2786</v>
+      </c>
+      <c r="T20" s="1" t="n">
+        <v>1986</v>
+      </c>
+      <c r="U20" s="1" t="n">
+        <v>-12420</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>-92188</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>-655</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>10255</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>30321</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>20513</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>1723</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>51142</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>48264</v>
+      </c>
+      <c r="J21" s="1" t="n">
+        <v>69948</v>
+      </c>
+      <c r="K21" s="1" t="n">
+        <v>108127</v>
+      </c>
+      <c r="L21" s="1" t="n">
+        <v>97490</v>
+      </c>
+      <c r="M21" s="1" t="n">
+        <v>114693</v>
+      </c>
+      <c r="N21" s="1" t="n">
+        <v>56210</v>
+      </c>
+      <c r="O21" s="1" t="n">
+        <v>125097</v>
+      </c>
+      <c r="P21" s="1" t="n">
+        <v>118881</v>
+      </c>
+      <c r="Q21" s="1" t="n">
+        <v>132565</v>
+      </c>
+      <c r="R21" s="1" t="n">
+        <v>163137</v>
+      </c>
+      <c r="S21" s="1" t="n">
+        <v>149278</v>
+      </c>
+      <c r="T21" s="1" t="n">
+        <v>106518</v>
+      </c>
+      <c r="U21" s="1" t="n">
+        <v>129568</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>-1123</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>11468</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>-34</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>-9985</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>-29307</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <v>-1168</v>
+      </c>
+      <c r="I22" s="1" t="n">
+        <v>-1900</v>
+      </c>
+      <c r="J22" s="1" t="n">
+        <v>-543</v>
+      </c>
+      <c r="K22" s="1" t="n">
+        <v>18653</v>
+      </c>
+      <c r="L22" s="1" t="n">
+        <v>3889</v>
+      </c>
+      <c r="M22" s="1" t="n">
+        <v>5294</v>
+      </c>
+      <c r="N22" s="1" t="n">
+        <v>-14188</v>
+      </c>
+      <c r="O22" s="1" t="n">
+        <v>18044</v>
+      </c>
+      <c r="P22" s="1" t="n">
+        <v>8776</v>
+      </c>
+      <c r="Q22" s="1" t="n">
+        <v>9533</v>
+      </c>
+      <c r="R22" s="1" t="n">
+        <v>23122</v>
+      </c>
+      <c r="S22" s="1" t="n">
+        <v>15818</v>
+      </c>
+      <c r="T22" s="1" t="n">
+        <v>762</v>
+      </c>
+      <c r="U22" s="1" t="n">
+        <v>-251</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>-91065</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>-12123</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>10289</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>30293</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>30498</v>
+      </c>
+      <c r="G23" s="1" t="n">
+        <v>31030</v>
+      </c>
+      <c r="H23" s="1" t="n">
+        <v>52310</v>
+      </c>
+      <c r="I23" s="1" t="n">
+        <v>50163</v>
+      </c>
+      <c r="J23" s="1" t="n">
+        <v>70491</v>
+      </c>
+      <c r="K23" s="1" t="n">
+        <v>89474</v>
+      </c>
+      <c r="L23" s="1" t="n">
+        <v>93600</v>
+      </c>
+      <c r="M23" s="1" t="n">
+        <v>109400</v>
+      </c>
+      <c r="N23" s="1" t="n">
+        <v>70398</v>
+      </c>
+      <c r="O23" s="1" t="n">
+        <v>107053</v>
+      </c>
+      <c r="P23" s="1" t="n">
+        <v>110104</v>
+      </c>
+      <c r="Q23" s="1" t="n">
+        <v>123033</v>
+      </c>
+      <c r="R23" s="1" t="n">
+        <v>140015</v>
+      </c>
+      <c r="S23" s="1" t="n">
+        <v>133460</v>
+      </c>
+      <c r="T23" s="1" t="n">
+        <v>105757</v>
+      </c>
+      <c r="U23" s="1" t="n">
+        <v>129819</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>-1985</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>-258</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>565</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>559</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <v>506</v>
+      </c>
+      <c r="I24" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="J24" s="1" t="n">
+        <v>559</v>
+      </c>
+      <c r="K24" s="1" t="n">
+        <v>721</v>
+      </c>
+      <c r="L24" s="1" t="n">
+        <v>520</v>
+      </c>
+      <c r="M24" s="1" t="n">
+        <v>608</v>
+      </c>
+      <c r="N24" s="1" t="n">
+        <v>391</v>
+      </c>
+      <c r="O24" s="1" t="n">
+        <v>457</v>
+      </c>
+      <c r="P24" s="1" t="n">
+        <v>471</v>
+      </c>
+      <c r="Q24" s="1" t="n">
+        <v>525</v>
+      </c>
+      <c r="R24" s="1" t="n">
+        <v>601</v>
+      </c>
+      <c r="S24" s="1" t="n">
+        <v>510</v>
+      </c>
+      <c r="T24" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="U24" s="1" t="n">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>